--- a/Optimization/Gurobi/5 districts/Excel files/1-R to D.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-R to D.xlsx
@@ -354,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="C1">
-        <v>236232</v>
+        <v>316872</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -365,7 +365,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>537600</v>
+        <v>456960</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization/Gurobi/5 districts/Excel files/1-R to D.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-R to D.xlsx
@@ -354,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="C1">
-        <v>316872</v>
+        <v>236232.0000000047</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -365,7 +365,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>456960</v>
+        <v>537599.999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization/Gurobi/5 districts/Excel files/1-R to D.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-R to D.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,24 +348,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>236232.0000000047</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>537599.999999995</v>
+      <c r="C4">
+        <v>12768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>7392</v>
       </c>
     </row>
   </sheetData>
